--- a/steel_plant_master_data.xlsx
+++ b/steel_plant_master_data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B3BE261-7D7A-4B0F-8301-D5C49CDC54C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CASHFLOW-SAP-BANK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759E3036-C401-44AD-A1AB-EA38B2AB294F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart of Accounts" sheetId="1" r:id="rId1"/>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="309">
   <si>
     <t>Account Code</t>
   </si>
@@ -386,13 +391,589 @@
   </si>
   <si>
     <t>Cost Centre 4</t>
+  </si>
+  <si>
+    <t>VEND010</t>
+  </si>
+  <si>
+    <t>Vendor K</t>
+  </si>
+  <si>
+    <t>VEND011</t>
+  </si>
+  <si>
+    <t>Vendor L</t>
+  </si>
+  <si>
+    <t>VEND012</t>
+  </si>
+  <si>
+    <t>Vendor M</t>
+  </si>
+  <si>
+    <t>VEND013</t>
+  </si>
+  <si>
+    <t>Vendor N</t>
+  </si>
+  <si>
+    <t>VEND014</t>
+  </si>
+  <si>
+    <t>Vendor O</t>
+  </si>
+  <si>
+    <t>Net 15</t>
+  </si>
+  <si>
+    <t>VEND015</t>
+  </si>
+  <si>
+    <t>Vendor P</t>
+  </si>
+  <si>
+    <t>VEND016</t>
+  </si>
+  <si>
+    <t>Vendor Q</t>
+  </si>
+  <si>
+    <t>VEND017</t>
+  </si>
+  <si>
+    <t>Vendor R</t>
+  </si>
+  <si>
+    <t>VEND018</t>
+  </si>
+  <si>
+    <t>Vendor S</t>
+  </si>
+  <si>
+    <t>VEND019</t>
+  </si>
+  <si>
+    <t>Vendor T</t>
+  </si>
+  <si>
+    <t>VEND020</t>
+  </si>
+  <si>
+    <t>Vendor U</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Net 90</t>
+  </si>
+  <si>
+    <t>VEND021</t>
+  </si>
+  <si>
+    <t>Vendor V</t>
+  </si>
+  <si>
+    <t>Net 120</t>
+  </si>
+  <si>
+    <t>VEND022</t>
+  </si>
+  <si>
+    <t>Vendor W</t>
+  </si>
+  <si>
+    <t>VEND023</t>
+  </si>
+  <si>
+    <t>Vendor X</t>
+  </si>
+  <si>
+    <t>Net 75</t>
+  </si>
+  <si>
+    <t>VEND024</t>
+  </si>
+  <si>
+    <t>Vendor Y</t>
+  </si>
+  <si>
+    <t>VEND025</t>
+  </si>
+  <si>
+    <t>Vendor Z</t>
+  </si>
+  <si>
+    <t>VEND026</t>
+  </si>
+  <si>
+    <t>Vendor AA</t>
+  </si>
+  <si>
+    <t>VEND027</t>
+  </si>
+  <si>
+    <t>Vendor BB</t>
+  </si>
+  <si>
+    <t>VEND028</t>
+  </si>
+  <si>
+    <t>Vendor CC</t>
+  </si>
+  <si>
+    <t>VEND029</t>
+  </si>
+  <si>
+    <t>Vendor DD</t>
+  </si>
+  <si>
+    <t>VEND030</t>
+  </si>
+  <si>
+    <t>Vendor EE</t>
+  </si>
+  <si>
+    <t>VEND031</t>
+  </si>
+  <si>
+    <t>Vendor FF</t>
+  </si>
+  <si>
+    <t>VEND032</t>
+  </si>
+  <si>
+    <t>Vendor GG</t>
+  </si>
+  <si>
+    <t>VEND033</t>
+  </si>
+  <si>
+    <t>Vendor HH</t>
+  </si>
+  <si>
+    <t>VEND034</t>
+  </si>
+  <si>
+    <t>Vendor II</t>
+  </si>
+  <si>
+    <t>VEND035</t>
+  </si>
+  <si>
+    <t>Vendor JJ</t>
+  </si>
+  <si>
+    <t>VEND036</t>
+  </si>
+  <si>
+    <t>Vendor KK</t>
+  </si>
+  <si>
+    <t>VEND037</t>
+  </si>
+  <si>
+    <t>Vendor LL</t>
+  </si>
+  <si>
+    <t>VEND038</t>
+  </si>
+  <si>
+    <t>Vendor MM</t>
+  </si>
+  <si>
+    <t>VEND039</t>
+  </si>
+  <si>
+    <t>Vendor NN</t>
+  </si>
+  <si>
+    <t>VEND040</t>
+  </si>
+  <si>
+    <t>Vendor OO</t>
+  </si>
+  <si>
+    <t>VEND041</t>
+  </si>
+  <si>
+    <t>Vendor PP</t>
+  </si>
+  <si>
+    <t>VEND042</t>
+  </si>
+  <si>
+    <t>Vendor QQ</t>
+  </si>
+  <si>
+    <t>Net 7</t>
+  </si>
+  <si>
+    <t>VEND043</t>
+  </si>
+  <si>
+    <t>Vendor RR</t>
+  </si>
+  <si>
+    <t>VEND044</t>
+  </si>
+  <si>
+    <t>Vendor SS</t>
+  </si>
+  <si>
+    <t>VEND045</t>
+  </si>
+  <si>
+    <t>Vendor TT</t>
+  </si>
+  <si>
+    <t>VEND046</t>
+  </si>
+  <si>
+    <t>Vendor UU</t>
+  </si>
+  <si>
+    <t>VEND047</t>
+  </si>
+  <si>
+    <t>Vendor VV</t>
+  </si>
+  <si>
+    <t>VEND048</t>
+  </si>
+  <si>
+    <t>Vendor WW</t>
+  </si>
+  <si>
+    <t>VEND049</t>
+  </si>
+  <si>
+    <t>Vendor XX</t>
+  </si>
+  <si>
+    <t>VEND050</t>
+  </si>
+  <si>
+    <t>Vendor YY</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Net 0</t>
+  </si>
+  <si>
+    <t>VEND051</t>
+  </si>
+  <si>
+    <t>Vendor ZZ</t>
+  </si>
+  <si>
+    <t>VEND052</t>
+  </si>
+  <si>
+    <t>Vendor AAA</t>
+  </si>
+  <si>
+    <t>VEND053</t>
+  </si>
+  <si>
+    <t>Vendor BBB</t>
+  </si>
+  <si>
+    <t>VEND054</t>
+  </si>
+  <si>
+    <t>Vendor CCC</t>
+  </si>
+  <si>
+    <t>VEND055</t>
+  </si>
+  <si>
+    <t>Vendor DDD</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>VEND056</t>
+  </si>
+  <si>
+    <t>Vendor EEE</t>
+  </si>
+  <si>
+    <t>VEND057</t>
+  </si>
+  <si>
+    <t>Vendor FFF</t>
+  </si>
+  <si>
+    <t>VEND058</t>
+  </si>
+  <si>
+    <t>Vendor GGG</t>
+  </si>
+  <si>
+    <t>VEND059</t>
+  </si>
+  <si>
+    <t>Vendor HHH</t>
+  </si>
+  <si>
+    <t>VEND060</t>
+  </si>
+  <si>
+    <t>Vendor III</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>VEND061</t>
+  </si>
+  <si>
+    <t>Vendor JJJ</t>
+  </si>
+  <si>
+    <t>VEND062</t>
+  </si>
+  <si>
+    <t>Vendor KKK</t>
+  </si>
+  <si>
+    <t>VEND063</t>
+  </si>
+  <si>
+    <t>Vendor LLL</t>
+  </si>
+  <si>
+    <t>VEND064</t>
+  </si>
+  <si>
+    <t>Vendor MMM</t>
+  </si>
+  <si>
+    <t>VEND065</t>
+  </si>
+  <si>
+    <t>Vendor NNN</t>
+  </si>
+  <si>
+    <t>VEND066</t>
+  </si>
+  <si>
+    <t>Vendor OOO</t>
+  </si>
+  <si>
+    <t>VEND067</t>
+  </si>
+  <si>
+    <t>Vendor PPP</t>
+  </si>
+  <si>
+    <t>VEND068</t>
+  </si>
+  <si>
+    <t>Vendor QQQ</t>
+  </si>
+  <si>
+    <t>VEND069</t>
+  </si>
+  <si>
+    <t>Vendor RRR</t>
+  </si>
+  <si>
+    <t>VEND070</t>
+  </si>
+  <si>
+    <t>Vendor SSS</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>VEND071</t>
+  </si>
+  <si>
+    <t>Vendor TTT</t>
+  </si>
+  <si>
+    <t>VEND072</t>
+  </si>
+  <si>
+    <t>Vendor UUU</t>
+  </si>
+  <si>
+    <t>VEND073</t>
+  </si>
+  <si>
+    <t>Vendor VVV</t>
+  </si>
+  <si>
+    <t>VEND074</t>
+  </si>
+  <si>
+    <t>Vendor WWW</t>
+  </si>
+  <si>
+    <t>VEND075</t>
+  </si>
+  <si>
+    <t>Vendor XXX</t>
+  </si>
+  <si>
+    <t>VEND076</t>
+  </si>
+  <si>
+    <t>Vendor YYY</t>
+  </si>
+  <si>
+    <t>VEND077</t>
+  </si>
+  <si>
+    <t>Vendor ZZZ</t>
+  </si>
+  <si>
+    <t>VEND078</t>
+  </si>
+  <si>
+    <t>Vendor AAAA</t>
+  </si>
+  <si>
+    <t>VEND079</t>
+  </si>
+  <si>
+    <t>Vendor BBBB</t>
+  </si>
+  <si>
+    <t>VEND080</t>
+  </si>
+  <si>
+    <t>Vendor CCCC</t>
+  </si>
+  <si>
+    <t>VEND081</t>
+  </si>
+  <si>
+    <t>Vendor DDDD</t>
+  </si>
+  <si>
+    <t>VEND082</t>
+  </si>
+  <si>
+    <t>Vendor EEEE</t>
+  </si>
+  <si>
+    <t>VEND083</t>
+  </si>
+  <si>
+    <t>Vendor FFFF</t>
+  </si>
+  <si>
+    <t>VEND084</t>
+  </si>
+  <si>
+    <t>Vendor GGGG</t>
+  </si>
+  <si>
+    <t>VEND085</t>
+  </si>
+  <si>
+    <t>Vendor HHHH</t>
+  </si>
+  <si>
+    <t>VEND086</t>
+  </si>
+  <si>
+    <t>Vendor IIII</t>
+  </si>
+  <si>
+    <t>VEND087</t>
+  </si>
+  <si>
+    <t>Vendor JJJJ</t>
+  </si>
+  <si>
+    <t>VEND088</t>
+  </si>
+  <si>
+    <t>Vendor KKKK</t>
+  </si>
+  <si>
+    <t>VEND089</t>
+  </si>
+  <si>
+    <t>Vendor LLLL</t>
+  </si>
+  <si>
+    <t>VEND090</t>
+  </si>
+  <si>
+    <t>Vendor MMMM</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>VEND091</t>
+  </si>
+  <si>
+    <t>Vendor NNNN</t>
+  </si>
+  <si>
+    <t>VEND092</t>
+  </si>
+  <si>
+    <t>Vendor OOOO</t>
+  </si>
+  <si>
+    <t>VEND093</t>
+  </si>
+  <si>
+    <t>Vendor PPPP</t>
+  </si>
+  <si>
+    <t>VEND094</t>
+  </si>
+  <si>
+    <t>Vendor QQQQ</t>
+  </si>
+  <si>
+    <t>VEND095</t>
+  </si>
+  <si>
+    <t>Vendor RRRR</t>
+  </si>
+  <si>
+    <t>VEND096</t>
+  </si>
+  <si>
+    <t>Vendor SSSS</t>
+  </si>
+  <si>
+    <t>VEND097</t>
+  </si>
+  <si>
+    <t>Vendor TTTT</t>
+  </si>
+  <si>
+    <t>VEND098</t>
+  </si>
+  <si>
+    <t>Vendor UUUU</t>
+  </si>
+  <si>
+    <t>VEND099</t>
+  </si>
+  <si>
+    <t>Vendor VVVV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,14 +1340,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,7 +1358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -788,7 +1369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -799,7 +1380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -810,7 +1391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -821,7 +1402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -832,7 +1413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -843,7 +1424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -854,7 +1435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -865,7 +1446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -876,7 +1457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -887,7 +1468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -898,7 +1479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -922,15 +1503,15 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -944,7 +1525,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -958,7 +1539,7 @@
         <v>1997184.3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -972,7 +1553,7 @@
         <v>1288215.73</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -986,7 +1567,7 @@
         <v>1935028.24</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1000,7 +1581,7 @@
         <v>1868186.24</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1014,7 +1595,7 @@
         <v>1319409.83</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1028,7 +1609,7 @@
         <v>1415114.87</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1042,7 +1623,7 @@
         <v>1936006.09</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -1056,7 +1637,7 @@
         <v>1337129.98</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1070,7 +1651,7 @@
         <v>1912228.32</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1091,21 +1672,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1119,7 +1700,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1133,7 +1714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1147,7 +1728,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1161,7 +1742,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1175,7 +1756,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1189,7 +1770,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -1203,7 +1784,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -1217,7 +1798,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1231,7 +1812,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -1245,7 +1826,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -1256,6 +1837,1266 @@
         <v>77</v>
       </c>
       <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" t="s">
+        <v>196</v>
+      </c>
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>209</v>
+      </c>
+      <c r="B54" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>211</v>
+      </c>
+      <c r="B55" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>215</v>
+      </c>
+      <c r="B57" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" t="s">
+        <v>217</v>
+      </c>
+      <c r="D58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59" t="s">
+        <v>221</v>
+      </c>
+      <c r="C59" t="s">
+        <v>217</v>
+      </c>
+      <c r="D59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" t="s">
+        <v>217</v>
+      </c>
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" t="s">
+        <v>225</v>
+      </c>
+      <c r="C61" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" t="s">
+        <v>230</v>
+      </c>
+      <c r="C63" t="s">
+        <v>228</v>
+      </c>
+      <c r="D63" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>231</v>
+      </c>
+      <c r="B64" t="s">
+        <v>232</v>
+      </c>
+      <c r="C64" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>233</v>
+      </c>
+      <c r="B65" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" t="s">
+        <v>228</v>
+      </c>
+      <c r="D65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" t="s">
+        <v>228</v>
+      </c>
+      <c r="D66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>237</v>
+      </c>
+      <c r="B67" t="s">
+        <v>238</v>
+      </c>
+      <c r="C67" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>239</v>
+      </c>
+      <c r="B68" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" t="s">
+        <v>228</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>241</v>
+      </c>
+      <c r="B69" t="s">
+        <v>242</v>
+      </c>
+      <c r="C69" t="s">
+        <v>228</v>
+      </c>
+      <c r="D69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>243</v>
+      </c>
+      <c r="B70" t="s">
+        <v>244</v>
+      </c>
+      <c r="C70" t="s">
+        <v>228</v>
+      </c>
+      <c r="D70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>245</v>
+      </c>
+      <c r="B71" t="s">
+        <v>246</v>
+      </c>
+      <c r="C71" t="s">
+        <v>228</v>
+      </c>
+      <c r="D71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>247</v>
+      </c>
+      <c r="B72" t="s">
+        <v>248</v>
+      </c>
+      <c r="C72" t="s">
+        <v>249</v>
+      </c>
+      <c r="D72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>250</v>
+      </c>
+      <c r="B73" t="s">
+        <v>251</v>
+      </c>
+      <c r="C73" t="s">
+        <v>249</v>
+      </c>
+      <c r="D73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>252</v>
+      </c>
+      <c r="B74" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>254</v>
+      </c>
+      <c r="B75" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" t="s">
+        <v>249</v>
+      </c>
+      <c r="D75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>256</v>
+      </c>
+      <c r="B76" t="s">
+        <v>257</v>
+      </c>
+      <c r="C76" t="s">
+        <v>249</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>258</v>
+      </c>
+      <c r="B77" t="s">
+        <v>259</v>
+      </c>
+      <c r="C77" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>260</v>
+      </c>
+      <c r="B78" t="s">
+        <v>261</v>
+      </c>
+      <c r="C78" t="s">
+        <v>249</v>
+      </c>
+      <c r="D78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>262</v>
+      </c>
+      <c r="B79" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79" t="s">
+        <v>249</v>
+      </c>
+      <c r="D79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>264</v>
+      </c>
+      <c r="B80" t="s">
+        <v>265</v>
+      </c>
+      <c r="C80" t="s">
+        <v>249</v>
+      </c>
+      <c r="D80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>266</v>
+      </c>
+      <c r="B81" t="s">
+        <v>267</v>
+      </c>
+      <c r="C81" t="s">
+        <v>249</v>
+      </c>
+      <c r="D81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>268</v>
+      </c>
+      <c r="B82" t="s">
+        <v>269</v>
+      </c>
+      <c r="C82" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>270</v>
+      </c>
+      <c r="B83" t="s">
+        <v>271</v>
+      </c>
+      <c r="C83" t="s">
+        <v>74</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>272</v>
+      </c>
+      <c r="B84" t="s">
+        <v>273</v>
+      </c>
+      <c r="C84" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>274</v>
+      </c>
+      <c r="B85" t="s">
+        <v>275</v>
+      </c>
+      <c r="C85" t="s">
+        <v>74</v>
+      </c>
+      <c r="D85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>276</v>
+      </c>
+      <c r="B86" t="s">
+        <v>277</v>
+      </c>
+      <c r="C86" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>278</v>
+      </c>
+      <c r="B87" t="s">
+        <v>279</v>
+      </c>
+      <c r="C87" t="s">
+        <v>74</v>
+      </c>
+      <c r="D87" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>280</v>
+      </c>
+      <c r="B88" t="s">
+        <v>281</v>
+      </c>
+      <c r="C88" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>282</v>
+      </c>
+      <c r="B89" t="s">
+        <v>283</v>
+      </c>
+      <c r="C89" t="s">
+        <v>74</v>
+      </c>
+      <c r="D89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>284</v>
+      </c>
+      <c r="B90" t="s">
+        <v>285</v>
+      </c>
+      <c r="C90" t="s">
+        <v>74</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>286</v>
+      </c>
+      <c r="B91" t="s">
+        <v>287</v>
+      </c>
+      <c r="C91" t="s">
+        <v>74</v>
+      </c>
+      <c r="D91" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>288</v>
+      </c>
+      <c r="B92" t="s">
+        <v>289</v>
+      </c>
+      <c r="C92" t="s">
+        <v>290</v>
+      </c>
+      <c r="D92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>291</v>
+      </c>
+      <c r="B93" t="s">
+        <v>292</v>
+      </c>
+      <c r="C93" t="s">
+        <v>290</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>293</v>
+      </c>
+      <c r="B94" t="s">
+        <v>294</v>
+      </c>
+      <c r="C94" t="s">
+        <v>290</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>295</v>
+      </c>
+      <c r="B95" t="s">
+        <v>296</v>
+      </c>
+      <c r="C95" t="s">
+        <v>290</v>
+      </c>
+      <c r="D95" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>297</v>
+      </c>
+      <c r="B96" t="s">
+        <v>298</v>
+      </c>
+      <c r="C96" t="s">
+        <v>290</v>
+      </c>
+      <c r="D96" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>299</v>
+      </c>
+      <c r="B97" t="s">
+        <v>300</v>
+      </c>
+      <c r="C97" t="s">
+        <v>290</v>
+      </c>
+      <c r="D97" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>301</v>
+      </c>
+      <c r="B98" t="s">
+        <v>302</v>
+      </c>
+      <c r="C98" t="s">
+        <v>290</v>
+      </c>
+      <c r="D98" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>303</v>
+      </c>
+      <c r="B99" t="s">
+        <v>304</v>
+      </c>
+      <c r="C99" t="s">
+        <v>290</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>305</v>
+      </c>
+      <c r="B100" t="s">
+        <v>306</v>
+      </c>
+      <c r="C100" t="s">
+        <v>290</v>
+      </c>
+      <c r="D100" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>307</v>
+      </c>
+      <c r="B101" t="s">
+        <v>308</v>
+      </c>
+      <c r="C101" t="s">
+        <v>290</v>
+      </c>
+      <c r="D101" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1272,13 +3113,13 @@
       <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -1289,7 +3130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -1300,7 +3141,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -1311,7 +3152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1322,7 +3163,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -1333,7 +3174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -1353,18 +3194,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.5546875" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
@@ -1375,7 +3216,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -1386,7 +3227,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -1397,7 +3238,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -1408,7 +3249,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -1419,7 +3260,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>115</v>
       </c>
